--- a/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1_磐石组.xlsx
+++ b/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1_磐石组.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="68">
   <si>
     <t>No</t>
   </si>
@@ -276,6 +276,22 @@
   </si>
   <si>
     <t>代码规范修改一期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东APP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>严宏飞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邱嘉莹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东App】文案修改</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2330,7 +2346,7 @@
   <dimension ref="A1:V209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2986,22 +3002,52 @@
       <c r="A12" s="21">
         <v>18</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13"/>
+      <c r="B12" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="31">
+        <v>42695</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="31">
+        <v>42696</v>
+      </c>
       <c r="K12" s="12"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="14"/>
+      <c r="L12" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="31">
+        <v>42695</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="22"/>
